--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.27</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.82</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.52</v>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.83</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,1291 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3809</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.1</v>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.52</v>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.83</v>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2649,925 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3450,7 +3451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,17 +3462,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3481,14 +3502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.12</v>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3497,14 +3540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.1</v>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3513,14 +3578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3529,14 +3616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.52</v>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3545,14 +3654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.83</v>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3561,13 +3692,295 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>8.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.52</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -995,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3347,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3517,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3725,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3857,7 +4196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600976-健民集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.12</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>8.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.52</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2338,7 +2961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3686,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3856,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4064,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4194,136 +4817,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000480</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3124</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001564</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红京东大数据灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6503</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>